--- a/00_assets/data/BD-jornadas-202506.xlsx
+++ b/00_assets/data/BD-jornadas-202506.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28715"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8C3F5D61-3D9E-42B2-B250-5D7F65A49878}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{50FED5B6-CCE0-4D50-9BAF-8F4696E54D61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="D1-geoinformatica" sheetId="1" r:id="rId1"/>
@@ -88,7 +88,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="79">
   <si>
     <t>Comienzo</t>
   </si>
@@ -129,9 +129,6 @@
     <t>Fran Ruiz</t>
   </si>
   <si>
-    <t>Pablo Fernández (si puede asistir)</t>
-  </si>
-  <si>
     <t>Opción 2: Model builder de QGIS</t>
   </si>
   <si>
@@ -171,72 +168,72 @@
     <t>Reto relámpago</t>
   </si>
   <si>
-    <t>Opción 2: Modelos de nicho y áreas protegidas</t>
+    <t>Opción 2: Open Foris: herramientas OpenSource para la gestión forestal</t>
+  </si>
+  <si>
+    <t>Pilar Valbuena</t>
+  </si>
+  <si>
+    <t>Opción 1: Impacto del cambio climático</t>
+  </si>
+  <si>
+    <t>Guillermo Palacios</t>
+  </si>
+  <si>
+    <t>Opción 2: Positron - Una IDE para ciencia de datos con R y Python</t>
+  </si>
+  <si>
+    <t>Adrián Cidre</t>
+  </si>
+  <si>
+    <t>Opción 1: Introducción a análisis geoespacial con R</t>
+  </si>
+  <si>
+    <t>Opción 2: Análisis de datos con GEE</t>
+  </si>
+  <si>
+    <t>Antonio J. Molina</t>
+  </si>
+  <si>
+    <t>Javier Pérez</t>
+  </si>
+  <si>
+    <t>Opción 3: Introducción a programación lineal</t>
+  </si>
+  <si>
+    <t>Opcón 1: Introducción 2 a análisis geoespacial con R</t>
+  </si>
+  <si>
+    <t>Opción 2: Análisis 2 de datos con Google Earth Engine</t>
+  </si>
+  <si>
+    <t>Opción 3: Introducción 2 a programación lineal</t>
+  </si>
+  <si>
+    <t>Mauricio Acuña</t>
+  </si>
+  <si>
+    <t>Carlos</t>
+  </si>
+  <si>
+    <t>Cervezas con ciencia (espacio abierto festivo de geociencias forestales)</t>
+  </si>
+  <si>
+    <t>Machine Learning e IA en ciencias forestales</t>
+  </si>
+  <si>
+    <t>Tecnología FAO para toma de datos de campo: uso de Arena y Ground</t>
+  </si>
+  <si>
+    <t>Descarga de datos y teledetección con R (descarga, exploración, IVeg ...)</t>
+  </si>
+  <si>
+    <t>Opción 1: Modelos predictivos aplicados a la priorización sistemática de la conservación</t>
   </si>
   <si>
     <t>Ricardo Hernández</t>
   </si>
   <si>
-    <t>Opcion 1: Ordenación forestal con QGIS</t>
-  </si>
-  <si>
-    <t>Pablo Fernández</t>
-  </si>
-  <si>
-    <t>Opción 2: Positron - Una IDE para ciencia de datos con R y Python</t>
-  </si>
-  <si>
-    <t>Adrián Cidre</t>
-  </si>
-  <si>
-    <t>Opción 1: Introducción a análisis geoespacial con R</t>
-  </si>
-  <si>
-    <t>Opción 2: Análisis de datos con GEE</t>
-  </si>
-  <si>
-    <t>Antonio J. Molina</t>
-  </si>
-  <si>
-    <t>Javier Pérez</t>
-  </si>
-  <si>
-    <t>Opción 3: Introducción a programación lineal</t>
-  </si>
-  <si>
-    <t>Opcón 1: Introducción 2 a análisis geoespacial con R</t>
-  </si>
-  <si>
-    <t>Opción 2: Análisis 2 de datos con Google Earth Engine</t>
-  </si>
-  <si>
-    <t>Opción 3: Introducción 2 a programación lineal</t>
-  </si>
-  <si>
-    <t>Mauricio Acuña</t>
-  </si>
-  <si>
-    <t>Carlos</t>
-  </si>
-  <si>
-    <t>Cervezas con ciencia (espacio abierto festivo de geociencias forestales)</t>
-  </si>
-  <si>
-    <t>Machine Learning e IA en ciencias forestales</t>
-  </si>
-  <si>
-    <t>Toma de datos en campo (QFIELD, OruxMaps, iPhone)</t>
-  </si>
-  <si>
-    <t>Charla + Práctica</t>
-  </si>
-  <si>
-    <t>Descarga de datos y teledetección con R (descarga, exploración, IVeg ...)</t>
-  </si>
-  <si>
-    <t>Opción 1: Modelos predictivos aplicados a la priorización sistemática de la conservación</t>
-  </si>
-  <si>
     <t>Opción 2: Clasificación de usos del suelo con GEE</t>
   </si>
   <si>
@@ -255,10 +252,7 @@
     <t>Opción 2: Paralelización en R</t>
   </si>
   <si>
-    <t>Opcion 1: Impacto del cambio climático</t>
-  </si>
-  <si>
-    <t>Guillermo Palacios</t>
+    <t>Opcion 1: Modelos de nicho y áreas protegidas</t>
   </si>
   <si>
     <t>Opción 2: Potencialialidades SAGA GIS  para análisis hidrológicos y de erosión</t>
@@ -330,7 +324,7 @@
     <t>Opción 3: Análisis de árbol individual</t>
   </si>
   <si>
-    <t>Cierre</t>
+    <t>Cierre Summer School</t>
   </si>
 </sst>
 </file>
@@ -379,7 +373,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -408,6 +402,18 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF000000"/>
         <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -583,7 +589,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -622,19 +628,22 @@
     <xf numFmtId="20" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="20" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="20" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -988,7 +997,7 @@
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1057,10 +1066,10 @@
       <c r="F3" s="8"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="26">
+      <c r="A4" s="31">
         <v>0.41666666666666669</v>
       </c>
-      <c r="B4" s="26">
+      <c r="B4" s="31">
         <v>0.47916666666666669</v>
       </c>
       <c r="C4" s="7" t="s">
@@ -1072,23 +1081,21 @@
       <c r="E4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="26"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="31"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="26"/>
-      <c r="B5" s="26"/>
-      <c r="C5" s="7" t="s">
+      <c r="D5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="7"/>
+      <c r="F5" s="26"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="6">
@@ -1098,63 +1105,63 @@
         <v>0.5</v>
       </c>
       <c r="C6" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="7" t="s">
         <v>16</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>17</v>
       </c>
       <c r="E6" s="8"/>
       <c r="F6" s="8"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="26">
+      <c r="A7" s="31">
         <v>0.5</v>
       </c>
-      <c r="B7" s="29">
+      <c r="B7" s="33">
         <v>0.5625</v>
       </c>
       <c r="C7" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="7" t="s">
         <v>18</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>19</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="26"/>
-      <c r="B8" s="29"/>
+      <c r="A8" s="31"/>
+      <c r="B8" s="33"/>
       <c r="C8" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" s="22" t="s">
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="31"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="7" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="26"/>
-      <c r="B9" s="29"/>
-      <c r="C9" s="7" t="s">
+      <c r="D9" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F9" s="7"/>
+      <c r="F9" s="26"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="6">
@@ -1164,26 +1171,26 @@
         <v>0.60416666666666663</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="27">
+      <c r="A11" s="29">
         <v>0.60416666666666663</v>
       </c>
-      <c r="B11" s="27">
+      <c r="B11" s="29">
         <v>0.61458333333333337</v>
       </c>
       <c r="C11" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="7" t="s">
         <v>25</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>26</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>8</v>
@@ -1191,99 +1198,99 @@
       <c r="F11" s="8"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="28"/>
-      <c r="B12" s="28"/>
+      <c r="A12" s="30"/>
+      <c r="B12" s="30"/>
       <c r="C12" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E12" s="7" t="s">
+      <c r="F12" s="8"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="29">
+        <v>0.61458333333333337</v>
+      </c>
+      <c r="B13" s="29">
+        <v>0.625</v>
+      </c>
+      <c r="C13" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="F12" s="8"/>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="27">
-        <v>0.61458333333333337</v>
-      </c>
-      <c r="B13" s="27">
+      <c r="D13" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F13" s="8"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="30"/>
+      <c r="B14" s="30"/>
+      <c r="C14" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F14" s="8"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="31">
         <v>0.625</v>
       </c>
-      <c r="C13" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F13" s="8"/>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="28"/>
-      <c r="B14" s="28"/>
-      <c r="C14" s="7" t="s">
+      <c r="B15" s="31">
+        <v>0.6875</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F14" s="8"/>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="26">
-        <v>0.625</v>
-      </c>
-      <c r="B15" s="26">
-        <v>0.6875</v>
-      </c>
-      <c r="C15" s="7" t="s">
+      <c r="F15" s="26"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="31"/>
+      <c r="B16" s="31"/>
+      <c r="C16" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D15" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F15" s="7"/>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="26"/>
-      <c r="B16" s="26"/>
-      <c r="C16" s="7" t="s">
+      <c r="D16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="D16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E16" s="13" t="s">
+      <c r="F16" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="F16" s="12" t="s">
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="31"/>
+      <c r="B17" s="31"/>
+      <c r="C17" s="7" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="26"/>
-      <c r="B17" s="26"/>
-      <c r="C17" s="7" t="s">
-        <v>37</v>
-      </c>
       <c r="D17" s="7" t="s">
         <v>11</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F17" s="23" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1294,64 +1301,64 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="C18" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="7" t="s">
         <v>16</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>17</v>
       </c>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="27">
+      <c r="A19" s="29">
         <v>0.70833333333333337</v>
       </c>
-      <c r="B19" s="27">
+      <c r="B19" s="29">
         <v>0.77083333333333337</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="30"/>
-      <c r="B20" s="30"/>
+      <c r="A20" s="32"/>
+      <c r="B20" s="32"/>
       <c r="C20" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="F20" s="13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="30"/>
+      <c r="B21" s="30"/>
+      <c r="C21" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D20" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E20" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="F20" s="13" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="28"/>
-      <c r="B21" s="28"/>
-      <c r="C21" s="7" t="s">
+      <c r="D21" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="D21" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E21" s="7" t="s">
+      <c r="F21" s="7" t="s">
         <v>41</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1362,10 +1369,10 @@
         <v>0.95833333333333337</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
@@ -1376,18 +1383,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="B7:B9"/>
     <mergeCell ref="A13:A14"/>
     <mergeCell ref="B13:B14"/>
     <mergeCell ref="A15:A17"/>
     <mergeCell ref="B15:B17"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="B19:B21"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="B7:B9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -1399,7 +1406,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1434,41 +1441,39 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="9">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="B2" s="9">
         <v>0.375</v>
       </c>
-      <c r="B2" s="9">
-        <v>0.39583333333333331</v>
-      </c>
       <c r="C2" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>7</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F2" s="8"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="9">
-        <v>0.39583333333333331</v>
+        <v>0.375</v>
       </c>
       <c r="B3" s="9">
         <v>0.4375</v>
       </c>
-      <c r="C3" s="7" t="s">
-        <v>45</v>
+      <c r="C3" s="28" t="s">
+        <v>44</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>42</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="E3" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="7"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="9">
@@ -1478,10 +1483,10 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="C4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="7" t="s">
         <v>16</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>17</v>
       </c>
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
@@ -1494,63 +1499,63 @@
         <v>0.5</v>
       </c>
       <c r="C5" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="26"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="33">
+        <v>0.5</v>
+      </c>
+      <c r="B6" s="33">
+        <v>0.5625</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="D5" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" s="7"/>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="29">
-        <v>0.5</v>
-      </c>
-      <c r="B6" s="29">
-        <v>0.5625</v>
-      </c>
-      <c r="C6" s="7" t="s">
+      <c r="F6" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="33"/>
+      <c r="B7" s="33"/>
+      <c r="C7" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="29"/>
-      <c r="B7" s="29"/>
-      <c r="C7" s="7" t="s">
+      <c r="D7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" s="26"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="33"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="D7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="F7" s="7"/>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="29"/>
-      <c r="B8" s="29"/>
-      <c r="C8" s="7" t="s">
+      <c r="D8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="D8" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="F8" s="7"/>
+      <c r="F8" s="26"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="6">
@@ -1560,128 +1565,128 @@
         <v>0.60416666666666663</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="29">
+      <c r="A10" s="33">
         <v>0.60416666666666663</v>
       </c>
-      <c r="B10" s="29">
+      <c r="B10" s="33">
         <v>0.61458333333333337</v>
       </c>
       <c r="C10" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="D10" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10" s="7" t="s">
+      <c r="F10" s="8"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="33"/>
+      <c r="B11" s="33"/>
+      <c r="C11" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="F10" s="8"/>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="29"/>
-      <c r="B11" s="29"/>
-      <c r="C11" s="7" t="s">
+      <c r="D11" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="8"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="33">
+        <v>0.61458333333333337</v>
+      </c>
+      <c r="B12" s="33">
+        <v>0.625</v>
+      </c>
+      <c r="C12" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="D11" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F11" s="8"/>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="29">
-        <v>0.61458333333333337</v>
-      </c>
-      <c r="B12" s="29">
+      <c r="D12" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F12" s="8"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="33"/>
+      <c r="B13" s="33"/>
+      <c r="C13" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F13" s="8"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="33">
         <v>0.625</v>
       </c>
-      <c r="C12" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E12" s="7" t="s">
+      <c r="B14" s="33">
+        <v>0.6875</v>
+      </c>
+      <c r="C14" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="F12" s="8"/>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="29"/>
-      <c r="B13" s="29"/>
-      <c r="C13" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="F13" s="8"/>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="29">
-        <v>0.625</v>
-      </c>
-      <c r="B14" s="29">
-        <v>0.6875</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>58</v>
-      </c>
       <c r="D14" s="7" t="s">
         <v>11</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="29"/>
-      <c r="B15" s="29"/>
+      <c r="A15" s="33"/>
+      <c r="B15" s="33"/>
       <c r="C15" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F15" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="D15" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E15" s="7" t="s">
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="33"/>
+      <c r="B16" s="33"/>
+      <c r="C16" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F15" s="7" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="29"/>
-      <c r="B16" s="29"/>
-      <c r="C16" s="7" t="s">
-        <v>62</v>
-      </c>
       <c r="D16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>41</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1692,62 +1697,62 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="C17" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="7" t="s">
         <v>16</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>17</v>
       </c>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="27">
+      <c r="A18" s="29">
         <v>0.70833333333333337</v>
       </c>
-      <c r="B18" s="27">
+      <c r="B18" s="29">
         <v>0.77083333333333337</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D18" s="7" t="s">
         <v>11</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="30"/>
-      <c r="B19" s="30"/>
+      <c r="A19" s="32"/>
+      <c r="B19" s="32"/>
       <c r="C19" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F19" s="7"/>
+        <v>31</v>
+      </c>
+      <c r="F19" s="26"/>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="28"/>
-      <c r="B20" s="28"/>
+      <c r="A20" s="30"/>
+      <c r="B20" s="30"/>
       <c r="C20" s="7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>41</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1758,10 +1763,10 @@
         <v>0.95833333333333337</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
@@ -1789,7 +1794,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1829,140 +1834,140 @@
         <v>0.375</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D2" s="18" t="s">
         <v>7</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="31">
+      <c r="A3" s="34">
         <v>0.375</v>
       </c>
-      <c r="B3" s="31">
+      <c r="B3" s="34">
         <v>0.38541666666666669</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E3" s="20" t="s">
         <v>12</v>
       </c>
       <c r="F3" s="21" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="36"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" s="21" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="34">
+        <v>0.38541666666666669</v>
+      </c>
+      <c r="B5" s="34">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="C5" s="20" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="33"/>
-      <c r="B4" s="33"/>
-      <c r="C4" s="20" t="s">
+      <c r="D5" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" s="21" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="36"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="D4" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="F4" s="21" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="31">
-        <v>0.38541666666666669</v>
-      </c>
-      <c r="B5" s="31">
+      <c r="D6" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="21" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="34">
         <v>0.39583333333333331</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="B7" s="34">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="C7" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="D5" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="F5" s="21" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="33"/>
-      <c r="B6" s="33"/>
-      <c r="C6" s="20" t="s">
+      <c r="D7" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="20" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="35"/>
+      <c r="B8" s="35"/>
+      <c r="C8" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="D6" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" s="21" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="31">
-        <v>0.39583333333333331</v>
-      </c>
-      <c r="B7" s="31">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="C7" s="20" t="s">
+      <c r="D8" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="F8" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="D7" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" s="20" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="32"/>
-      <c r="B8" s="32"/>
-      <c r="C8" s="20" t="s">
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="36"/>
+      <c r="B9" s="36"/>
+      <c r="C9" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="D8" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="F8" s="20" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="33"/>
-      <c r="B9" s="33"/>
-      <c r="C9" s="20" t="s">
-        <v>76</v>
-      </c>
       <c r="D9" s="20" t="s">
         <v>11</v>
       </c>
       <c r="E9" s="20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F9" s="20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1973,68 +1978,68 @@
         <v>0.47916666666666669</v>
       </c>
       <c r="C10" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="20" t="s">
-        <v>17</v>
-      </c>
       <c r="E10" s="21" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F10" s="21" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="31">
+      <c r="A11" s="34">
         <v>0.47916666666666669</v>
       </c>
-      <c r="B11" s="31">
+      <c r="B11" s="34">
         <v>0.57291666666666663</v>
       </c>
       <c r="C11" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="F11" s="20" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="35"/>
+      <c r="B12" s="35"/>
+      <c r="C12" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="D12" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="F12" s="27" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="36"/>
+      <c r="B13" s="36"/>
+      <c r="C13" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="D11" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="F11" s="20" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="32"/>
-      <c r="B12" s="32"/>
-      <c r="C12" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="D12" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="F12" s="20" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="33"/>
-      <c r="B13" s="33"/>
-      <c r="C13" s="20" t="s">
-        <v>79</v>
-      </c>
       <c r="D13" s="20" t="s">
         <v>11</v>
       </c>
       <c r="E13" s="20" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F13" s="20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -2045,16 +2050,16 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D14" s="20" t="s">
         <v>7</v>
       </c>
       <c r="E14" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="F14" s="27" t="s">
         <v>67</v>
-      </c>
-      <c r="F14" s="20" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -2065,16 +2070,16 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D15" s="20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E15" s="21" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F15" s="21" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/00_assets/data/BD-jornadas-202506.xlsx
+++ b/00_assets/data/BD-jornadas-202506.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28715"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28723"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{50FED5B6-CCE0-4D50-9BAF-8F4696E54D61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{990C3402-50A3-4FB5-8700-14B02D5B1E3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="D1-geoinformatica" sheetId="1" r:id="rId1"/>
@@ -88,7 +88,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="81">
   <si>
     <t>Comienzo</t>
   </si>
@@ -222,40 +222,43 @@
     <t>Machine Learning e IA en ciencias forestales</t>
   </si>
   <si>
-    <t>Tecnología FAO para toma de datos de campo: uso de Arena y Ground</t>
-  </si>
-  <si>
-    <t>Descarga de datos y teledetección con R (descarga, exploración, IVeg ...)</t>
-  </si>
-  <si>
-    <t>Opción 1: Modelos predictivos aplicados a la priorización sistemática de la conservación</t>
+    <t>Opción 1: Tecnología FAO para toma de datos de campo: uso de Arena y Ground</t>
+  </si>
+  <si>
+    <t>Opción 2: Descarga de datos y teledetección con R (descarga, exploración, IVeg ...)</t>
+  </si>
+  <si>
+    <t>Antonio Ariza?</t>
+  </si>
+  <si>
+    <t>Opción 1: Clasificación de usos del suelo en R (GEOBIA)</t>
+  </si>
+  <si>
+    <t>Opción 2: Clasificación de usos del suelo con GEE</t>
+  </si>
+  <si>
+    <t>Opción 3: Desarrollo de modelos alométricos para biomasa</t>
+  </si>
+  <si>
+    <t>Antonio Ariza</t>
+  </si>
+  <si>
+    <t>Opción 1: Teledetección y gestión de bosques australes</t>
+  </si>
+  <si>
+    <t>Antonio Cabrera</t>
+  </si>
+  <si>
+    <t>Opción 2: Paralelización en R</t>
+  </si>
+  <si>
+    <t>Opcion 1: Modelos de nicho y áreas protegidas</t>
   </si>
   <si>
     <t>Ricardo Hernández</t>
   </si>
   <si>
-    <t>Opción 2: Clasificación de usos del suelo con GEE</t>
-  </si>
-  <si>
-    <t>Opción 3: Desarrollo de modelos alométricos para biomasa</t>
-  </si>
-  <si>
-    <t>Antonio Ariza</t>
-  </si>
-  <si>
-    <t>Opción 1: Teledetección y gestión de bosques australes</t>
-  </si>
-  <si>
-    <t>Antonio Cabrera</t>
-  </si>
-  <si>
-    <t>Opción 2: Paralelización en R</t>
-  </si>
-  <si>
-    <t>Opcion 1: Modelos de nicho y áreas protegidas</t>
-  </si>
-  <si>
-    <t>Opción 2: Potencialialidades SAGA GIS  para análisis hidrológicos y de erosión</t>
+    <t>Opción 2: Potencialides de SAGA GIS  para análisis hidrológicos y de erosión</t>
   </si>
   <si>
     <t>Opción 1: Estadística aplicada a inventarios forestales</t>
@@ -276,7 +279,10 @@
     <t>Opción 1: Estadística aplicada a inventarios forestales 2</t>
   </si>
   <si>
-    <t>Opción 2: Clasificación de usos del suelo en R (GEOBIA)</t>
+    <t>Opción 2: Modelos predictivos aplicados a la priorización sistemática de la conservación</t>
+  </si>
+  <si>
+    <t>Pablo Gonzalez</t>
   </si>
   <si>
     <t>Opción 3: Intermedio - Optimización 2</t>
@@ -589,7 +595,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -653,6 +659,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -996,8 +1009,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1362,10 +1375,10 @@
       </c>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="10">
+      <c r="A22" s="38">
         <v>0.85416666666666663</v>
       </c>
-      <c r="B22" s="11">
+      <c r="B22" s="39">
         <v>0.95833333333333337</v>
       </c>
       <c r="C22" s="7" t="s">
@@ -1406,7 +1419,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1458,11 +1471,11 @@
       <c r="F2" s="8"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="9">
+      <c r="A3" s="29">
         <v>0.375</v>
       </c>
-      <c r="B3" s="9">
-        <v>0.4375</v>
+      <c r="B3" s="29">
+        <v>0.45833333333333331</v>
       </c>
       <c r="C3" s="28" t="s">
         <v>44</v>
@@ -1473,61 +1486,57 @@
       <c r="E3" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="F3" s="7"/>
+      <c r="F3" s="26"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="9">
-        <v>0.4375</v>
-      </c>
-      <c r="B4" s="9">
-        <v>0.45833333333333331</v>
-      </c>
+      <c r="A4" s="30"/>
+      <c r="B4" s="30"/>
       <c r="C4" s="7" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
+        <v>11</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="26" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="9">
         <v>0.45833333333333331</v>
       </c>
       <c r="B5" s="9">
-        <v>0.5</v>
+        <v>0.47916666666666669</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="26"/>
+        <v>16</v>
+      </c>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="33">
-        <v>0.5</v>
+        <v>0.47916666666666669</v>
       </c>
       <c r="B6" s="33">
         <v>0.5625</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>11</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>18</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="F6" s="26"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="33"/>
@@ -1619,7 +1628,7 @@
         <v>25</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="F12" s="8"/>
     </row>
@@ -1627,7 +1636,7 @@
       <c r="A13" s="33"/>
       <c r="B13" s="33"/>
       <c r="C13" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D13" s="7" t="s">
         <v>25</v>
@@ -1645,7 +1654,7 @@
         <v>0.6875</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D14" s="7" t="s">
         <v>11</v>
@@ -1661,23 +1670,23 @@
       <c r="A15" s="33"/>
       <c r="B15" s="33"/>
       <c r="C15" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D15" s="7" t="s">
         <v>11</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="33"/>
       <c r="B16" s="33"/>
       <c r="C16" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D16" s="7" t="s">
         <v>11</v>
@@ -1713,37 +1722,37 @@
         <v>0.77083333333333337</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D18" s="7" t="s">
         <v>11</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="7" t="s">
         <v>12</v>
       </c>
+      <c r="F18" s="26"/>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="32"/>
       <c r="B19" s="32"/>
       <c r="C19" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F19" s="26"/>
+        <v>55</v>
+      </c>
+      <c r="F19" s="28" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="30"/>
       <c r="B20" s="30"/>
       <c r="C20" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D20" s="7" t="s">
         <v>11</v>
@@ -1772,7 +1781,9 @@
       <c r="F21" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="12">
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
     <mergeCell ref="A18:A20"/>
     <mergeCell ref="B18:B20"/>
     <mergeCell ref="A6:A8"/>
@@ -1793,8 +1804,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F07A4528-549F-4881-AF93-621EB587BE44}">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1834,7 +1845,7 @@
         <v>0.375</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D2" s="18" t="s">
         <v>7</v>
@@ -1843,7 +1854,7 @@
         <v>14</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1854,7 +1865,7 @@
         <v>0.38541666666666669</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D3" s="20" t="s">
         <v>25</v>
@@ -1863,14 +1874,14 @@
         <v>12</v>
       </c>
       <c r="F3" s="21" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="36"/>
       <c r="B4" s="36"/>
       <c r="C4" s="20" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D4" s="20" t="s">
         <v>25</v>
@@ -1879,7 +1890,7 @@
         <v>35</v>
       </c>
       <c r="F4" s="21" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1890,7 +1901,7 @@
         <v>0.39583333333333331</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D5" s="20" t="s">
         <v>25</v>
@@ -1899,14 +1910,14 @@
         <v>31</v>
       </c>
       <c r="F5" s="21" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="36"/>
       <c r="B6" s="36"/>
       <c r="C6" s="20" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D6" s="20" t="s">
         <v>25</v>
@@ -1915,7 +1926,7 @@
         <v>14</v>
       </c>
       <c r="F6" s="21" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1926,7 +1937,7 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D7" s="20" t="s">
         <v>11</v>
@@ -1935,14 +1946,14 @@
         <v>14</v>
       </c>
       <c r="F7" s="20" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="35"/>
       <c r="B8" s="35"/>
       <c r="C8" s="20" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D8" s="20" t="s">
         <v>11</v>
@@ -1951,14 +1962,14 @@
         <v>52</v>
       </c>
       <c r="F8" s="20" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="36"/>
       <c r="B9" s="36"/>
       <c r="C9" s="20" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D9" s="20" t="s">
         <v>11</v>
@@ -1984,10 +1995,10 @@
         <v>16</v>
       </c>
       <c r="E10" s="21" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F10" s="21" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1998,13 +2009,13 @@
         <v>0.57291666666666663</v>
       </c>
       <c r="C11" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="20" t="s">
         <v>75</v>
-      </c>
-      <c r="D11" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="20" t="s">
-        <v>73</v>
       </c>
       <c r="F11" s="20" t="s">
         <v>52</v>
@@ -2014,7 +2025,7 @@
       <c r="A12" s="35"/>
       <c r="B12" s="35"/>
       <c r="C12" s="20" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D12" s="20" t="s">
         <v>11</v>
@@ -2023,14 +2034,14 @@
         <v>50</v>
       </c>
       <c r="F12" s="27" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="36"/>
       <c r="B13" s="36"/>
       <c r="C13" s="20" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D13" s="20" t="s">
         <v>11</v>
@@ -2050,16 +2061,16 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D14" s="20" t="s">
         <v>7</v>
       </c>
       <c r="E14" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="F14" s="27" t="s">
         <v>67</v>
+      </c>
+      <c r="F14" s="37" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -2076,10 +2087,10 @@
         <v>16</v>
       </c>
       <c r="E15" s="21" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F15" s="21" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>

--- a/00_assets/data/BD-jornadas-202506.xlsx
+++ b/00_assets/data/BD-jornadas-202506.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28723"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28724"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{990C3402-50A3-4FB5-8700-14B02D5B1E3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{217EBC39-8390-4CA1-AD96-6A5746142E0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="D1-geoinformatica" sheetId="1" r:id="rId1"/>
@@ -88,7 +88,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="81">
   <si>
     <t>Comienzo</t>
   </si>
@@ -168,7 +168,7 @@
     <t>Reto relámpago</t>
   </si>
   <si>
-    <t>Opción 2: Open Foris: herramientas OpenSource para la gestión forestal</t>
+    <t>Opción 2: Open Foris: herramientas Open Source para la gestión forestal</t>
   </si>
   <si>
     <t>Pilar Valbuena</t>
@@ -264,7 +264,7 @@
     <t>Opción 1: Estadística aplicada a inventarios forestales</t>
   </si>
   <si>
-    <t>Opción 2: Conectividad de ecosistemas con machine learning</t>
+    <t>Opción 2: Calculo de conectividad de ecosistemas</t>
   </si>
   <si>
     <t>Carlos Rivas</t>
@@ -637,19 +637,26 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="20" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="20" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -659,13 +666,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1009,8 +1009,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1079,10 +1079,10 @@
       <c r="F3" s="8"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="31">
+      <c r="A4" s="32">
         <v>0.41666666666666669</v>
       </c>
-      <c r="B4" s="31">
+      <c r="B4" s="32">
         <v>0.47916666666666669</v>
       </c>
       <c r="C4" s="7" t="s">
@@ -1097,8 +1097,8 @@
       <c r="F4" s="26"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="31"/>
-      <c r="B5" s="31"/>
+      <c r="A5" s="32"/>
+      <c r="B5" s="32"/>
       <c r="C5" s="7" t="s">
         <v>13</v>
       </c>
@@ -1127,10 +1127,10 @@
       <c r="F6" s="8"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="31">
+      <c r="A7" s="32">
         <v>0.5</v>
       </c>
-      <c r="B7" s="33">
+      <c r="B7" s="35">
         <v>0.5625</v>
       </c>
       <c r="C7" s="7" t="s">
@@ -1147,8 +1147,8 @@
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="31"/>
-      <c r="B8" s="33"/>
+      <c r="A8" s="32"/>
+      <c r="B8" s="35"/>
       <c r="C8" s="7" t="s">
         <v>19</v>
       </c>
@@ -1163,8 +1163,8 @@
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="31"/>
-      <c r="B9" s="33"/>
+      <c r="A9" s="32"/>
+      <c r="B9" s="35"/>
       <c r="C9" s="7" t="s">
         <v>21</v>
       </c>
@@ -1193,10 +1193,10 @@
       <c r="F10" s="8"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="29">
+      <c r="A11" s="33">
         <v>0.60416666666666663</v>
       </c>
-      <c r="B11" s="29">
+      <c r="B11" s="33">
         <v>0.61458333333333337</v>
       </c>
       <c r="C11" s="7" t="s">
@@ -1211,8 +1211,8 @@
       <c r="F11" s="8"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="30"/>
-      <c r="B12" s="30"/>
+      <c r="A12" s="34"/>
+      <c r="B12" s="34"/>
       <c r="C12" s="7" t="s">
         <v>26</v>
       </c>
@@ -1225,10 +1225,10 @@
       <c r="F12" s="8"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="29">
+      <c r="A13" s="33">
         <v>0.61458333333333337</v>
       </c>
-      <c r="B13" s="29">
+      <c r="B13" s="33">
         <v>0.625</v>
       </c>
       <c r="C13" s="23" t="s">
@@ -1243,8 +1243,8 @@
       <c r="F13" s="8"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="30"/>
-      <c r="B14" s="30"/>
+      <c r="A14" s="34"/>
+      <c r="B14" s="34"/>
       <c r="C14" s="7" t="s">
         <v>30</v>
       </c>
@@ -1257,10 +1257,10 @@
       <c r="F14" s="8"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="31">
+      <c r="A15" s="32">
         <v>0.625</v>
       </c>
-      <c r="B15" s="31">
+      <c r="B15" s="32">
         <v>0.6875</v>
       </c>
       <c r="C15" s="7" t="s">
@@ -1275,8 +1275,8 @@
       <c r="F15" s="26"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="31"/>
-      <c r="B16" s="31"/>
+      <c r="A16" s="32"/>
+      <c r="B16" s="32"/>
       <c r="C16" s="7" t="s">
         <v>33</v>
       </c>
@@ -1291,8 +1291,8 @@
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="31"/>
-      <c r="B17" s="31"/>
+      <c r="A17" s="32"/>
+      <c r="B17" s="32"/>
       <c r="C17" s="7" t="s">
         <v>36</v>
       </c>
@@ -1323,10 +1323,10 @@
       <c r="F18" s="8"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="29">
+      <c r="A19" s="33">
         <v>0.70833333333333337</v>
       </c>
-      <c r="B19" s="29">
+      <c r="B19" s="33">
         <v>0.77083333333333337</v>
       </c>
       <c r="C19" s="7" t="s">
@@ -1343,8 +1343,8 @@
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="32"/>
-      <c r="B20" s="32"/>
+      <c r="A20" s="36"/>
+      <c r="B20" s="36"/>
       <c r="C20" s="7" t="s">
         <v>38</v>
       </c>
@@ -1359,8 +1359,8 @@
       </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="30"/>
-      <c r="B21" s="30"/>
+      <c r="A21" s="34"/>
+      <c r="B21" s="34"/>
       <c r="C21" s="7" t="s">
         <v>39</v>
       </c>
@@ -1375,10 +1375,10 @@
       </c>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="38">
+      <c r="A22" s="30">
         <v>0.85416666666666663</v>
       </c>
-      <c r="B22" s="39">
+      <c r="B22" s="31">
         <v>0.95833333333333337</v>
       </c>
       <c r="C22" s="7" t="s">
@@ -1396,18 +1396,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="B19:B21"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="A11:A12"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="B7:B9"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="B19:B21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -1419,7 +1419,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1471,10 +1471,10 @@
       <c r="F2" s="8"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="29">
+      <c r="A3" s="33">
         <v>0.375</v>
       </c>
-      <c r="B3" s="29">
+      <c r="B3" s="33">
         <v>0.45833333333333331</v>
       </c>
       <c r="C3" s="28" t="s">
@@ -1489,8 +1489,8 @@
       <c r="F3" s="26"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="30"/>
-      <c r="B4" s="30"/>
+      <c r="A4" s="34"/>
+      <c r="B4" s="34"/>
       <c r="C4" s="7" t="s">
         <v>45</v>
       </c>
@@ -1521,10 +1521,10 @@
       <c r="F5" s="8"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="33">
+      <c r="A6" s="35">
         <v>0.47916666666666669</v>
       </c>
-      <c r="B6" s="33">
+      <c r="B6" s="35">
         <v>0.5625</v>
       </c>
       <c r="C6" s="7" t="s">
@@ -1539,8 +1539,8 @@
       <c r="F6" s="26"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="33"/>
-      <c r="B7" s="33"/>
+      <c r="A7" s="35"/>
+      <c r="B7" s="35"/>
       <c r="C7" s="7" t="s">
         <v>48</v>
       </c>
@@ -1550,11 +1550,13 @@
       <c r="E7" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="F7" s="26"/>
+      <c r="F7" s="26" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="33"/>
-      <c r="B8" s="33"/>
+      <c r="A8" s="35"/>
+      <c r="B8" s="35"/>
       <c r="C8" s="7" t="s">
         <v>49</v>
       </c>
@@ -1583,10 +1585,10 @@
       <c r="F9" s="8"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="33">
+      <c r="A10" s="35">
         <v>0.60416666666666663</v>
       </c>
-      <c r="B10" s="33">
+      <c r="B10" s="35">
         <v>0.61458333333333337</v>
       </c>
       <c r="C10" s="7" t="s">
@@ -1601,8 +1603,8 @@
       <c r="F10" s="8"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="33"/>
-      <c r="B11" s="33"/>
+      <c r="A11" s="35"/>
+      <c r="B11" s="35"/>
       <c r="C11" s="7" t="s">
         <v>53</v>
       </c>
@@ -1615,10 +1617,10 @@
       <c r="F11" s="8"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="33">
+      <c r="A12" s="35">
         <v>0.61458333333333337</v>
       </c>
-      <c r="B12" s="33">
+      <c r="B12" s="35">
         <v>0.625</v>
       </c>
       <c r="C12" s="7" t="s">
@@ -1633,8 +1635,8 @@
       <c r="F12" s="8"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="33"/>
-      <c r="B13" s="33"/>
+      <c r="A13" s="35"/>
+      <c r="B13" s="35"/>
       <c r="C13" s="7" t="s">
         <v>56</v>
       </c>
@@ -1647,10 +1649,10 @@
       <c r="F13" s="8"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="33">
+      <c r="A14" s="35">
         <v>0.625</v>
       </c>
-      <c r="B14" s="33">
+      <c r="B14" s="35">
         <v>0.6875</v>
       </c>
       <c r="C14" s="7" t="s">
@@ -1667,8 +1669,8 @@
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="33"/>
-      <c r="B15" s="33"/>
+      <c r="A15" s="35"/>
+      <c r="B15" s="35"/>
       <c r="C15" s="7" t="s">
         <v>58</v>
       </c>
@@ -1683,8 +1685,8 @@
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="33"/>
-      <c r="B16" s="33"/>
+      <c r="A16" s="35"/>
+      <c r="B16" s="35"/>
       <c r="C16" s="7" t="s">
         <v>61</v>
       </c>
@@ -1715,10 +1717,10 @@
       <c r="F17" s="8"/>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="29">
+      <c r="A18" s="33">
         <v>0.70833333333333337</v>
       </c>
-      <c r="B18" s="29">
+      <c r="B18" s="33">
         <v>0.77083333333333337</v>
       </c>
       <c r="C18" s="7" t="s">
@@ -1730,11 +1732,13 @@
       <c r="E18" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F18" s="26"/>
+      <c r="F18" s="28" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="32"/>
-      <c r="B19" s="32"/>
+      <c r="A19" s="36"/>
+      <c r="B19" s="36"/>
       <c r="C19" s="7" t="s">
         <v>63</v>
       </c>
@@ -1749,8 +1753,8 @@
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="30"/>
-      <c r="B20" s="30"/>
+      <c r="A20" s="34"/>
+      <c r="B20" s="34"/>
       <c r="C20" s="7" t="s">
         <v>65</v>
       </c>
@@ -1804,8 +1808,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F07A4528-549F-4881-AF93-621EB587BE44}">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:F13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1858,10 +1862,10 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="34">
+      <c r="A3" s="37">
         <v>0.375</v>
       </c>
-      <c r="B3" s="34">
+      <c r="B3" s="37">
         <v>0.38541666666666669</v>
       </c>
       <c r="C3" s="20" t="s">
@@ -1878,8 +1882,8 @@
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="36"/>
-      <c r="B4" s="36"/>
+      <c r="A4" s="39"/>
+      <c r="B4" s="39"/>
       <c r="C4" s="20" t="s">
         <v>70</v>
       </c>
@@ -1894,10 +1898,10 @@
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="34">
+      <c r="A5" s="37">
         <v>0.38541666666666669</v>
       </c>
-      <c r="B5" s="34">
+      <c r="B5" s="37">
         <v>0.39583333333333331</v>
       </c>
       <c r="C5" s="20" t="s">
@@ -1914,8 +1918,8 @@
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="36"/>
-      <c r="B6" s="36"/>
+      <c r="A6" s="39"/>
+      <c r="B6" s="39"/>
       <c r="C6" s="20" t="s">
         <v>72</v>
       </c>
@@ -1930,10 +1934,10 @@
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="34">
+      <c r="A7" s="37">
         <v>0.39583333333333331</v>
       </c>
-      <c r="B7" s="34">
+      <c r="B7" s="37">
         <v>0.45833333333333331</v>
       </c>
       <c r="C7" s="20" t="s">
@@ -1950,8 +1954,8 @@
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="35"/>
-      <c r="B8" s="35"/>
+      <c r="A8" s="38"/>
+      <c r="B8" s="38"/>
       <c r="C8" s="20" t="s">
         <v>74</v>
       </c>
@@ -1966,8 +1970,8 @@
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="36"/>
-      <c r="B9" s="36"/>
+      <c r="A9" s="39"/>
+      <c r="B9" s="39"/>
       <c r="C9" s="20" t="s">
         <v>76</v>
       </c>
@@ -2002,10 +2006,10 @@
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="34">
+      <c r="A11" s="37">
         <v>0.47916666666666669</v>
       </c>
-      <c r="B11" s="34">
+      <c r="B11" s="37">
         <v>0.57291666666666663</v>
       </c>
       <c r="C11" s="20" t="s">
@@ -2022,8 +2026,8 @@
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="35"/>
-      <c r="B12" s="35"/>
+      <c r="A12" s="38"/>
+      <c r="B12" s="38"/>
       <c r="C12" s="20" t="s">
         <v>78</v>
       </c>
@@ -2038,8 +2042,8 @@
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="36"/>
-      <c r="B13" s="36"/>
+      <c r="A13" s="39"/>
+      <c r="B13" s="39"/>
       <c r="C13" s="20" t="s">
         <v>79</v>
       </c>
@@ -2069,7 +2073,7 @@
       <c r="E14" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="F14" s="37" t="s">
+      <c r="F14" s="29" t="s">
         <v>69</v>
       </c>
     </row>

--- a/00_assets/data/BD-jornadas-202506.xlsx
+++ b/00_assets/data/BD-jornadas-202506.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28724"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28803"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{217EBC39-8390-4CA1-AD96-6A5746142E0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EA685258-09DC-4BDA-99C6-C85717D9BBA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1809,7 +1809,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/00_assets/data/BD-jornadas-202506.xlsx
+++ b/00_assets/data/BD-jornadas-202506.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28803"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EA685258-09DC-4BDA-99C6-C85717D9BBA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{962C1AF4-5BAF-4903-964E-49A3515A1B1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -303,7 +303,7 @@
     <t>Opción 2: Incendios forestales</t>
   </si>
   <si>
-    <t>Opción 1: Procesado automático de los datos del IFN</t>
+    <t>Opción 1: Fragmentación forestal: conceptos y métricas</t>
   </si>
   <si>
     <t>Opción 2: Sensorización LiDAR de procesadoras forestales</t>
@@ -1809,7 +1809,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1911,7 +1911,7 @@
         <v>25</v>
       </c>
       <c r="E5" s="20" t="s">
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="F5" s="21" t="s">
         <v>69</v>

--- a/00_assets/data/BD-jornadas-202506.xlsx
+++ b/00_assets/data/BD-jornadas-202506.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28803"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29012"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{962C1AF4-5BAF-4903-964E-49A3515A1B1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B3674A32-68EF-4896-898E-5FBDAEFE5986}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="D1-geoinformatica" sheetId="1" r:id="rId1"/>
@@ -108,7 +108,7 @@
     <t>Ayudante</t>
   </si>
   <si>
-    <t>Apertura + Bosque digital + Máster geoforest</t>
+    <t>Aula 1: Apertura + Bosque digital + Máster geoforest</t>
   </si>
   <si>
     <t>Charla</t>
@@ -117,10 +117,10 @@
     <t>Rafael Navarro</t>
   </si>
   <si>
-    <t>Estado del arte de la geomática y la teledetección (nuevos sensores, tendencias...)</t>
-  </si>
-  <si>
-    <t>Opción 1: Introducción a SIG con QGIS</t>
+    <t>Aula 1: Estado del arte de la geomática y la teledetección (nuevos sensores, tendencias...)</t>
+  </si>
+  <si>
+    <t>Aula 1: Introducción a SIG con QGIS</t>
   </si>
   <si>
     <t>Workshop</t>
@@ -129,7 +129,7 @@
     <t>Fran Ruiz</t>
   </si>
   <si>
-    <t>Opción 2: Model builder de QGIS</t>
+    <t>Aula 2: Model builder de QGIS</t>
   </si>
   <si>
     <t>Carlos Martín</t>
@@ -141,19 +141,19 @@
     <t>Descanso</t>
   </si>
   <si>
-    <t>Opción 1: Introducción al análisis de datos con R</t>
+    <t>Aula 1: Introducción al análisis de datos con R</t>
   </si>
   <si>
     <t>Pablo González</t>
   </si>
   <si>
-    <t>Opción 2: Introducción a la programación con Python</t>
+    <t>Aula 2: Introducción a la programación con Python</t>
   </si>
   <si>
     <t>Mauricio</t>
   </si>
   <si>
-    <t>Opción 3: Introducción a bases de datos y SQL</t>
+    <t>Aula 3: Introducción a bases de datos y SQL</t>
   </si>
   <si>
     <t>Mari Ángeles</t>
@@ -162,34 +162,34 @@
     <t>Comida</t>
   </si>
   <si>
-    <t>Opción 1: Ordenación de montes: del inventario a la selvicultura</t>
+    <t>Aula 1: Ordenación de montes: del inventario a la selvicultura</t>
   </si>
   <si>
     <t>Reto relámpago</t>
   </si>
   <si>
-    <t>Opción 2: Open Foris: herramientas Open Source para la gestión forestal</t>
+    <t>Aula 2: Open Foris: herramientas Open Source para la gestión forestal</t>
   </si>
   <si>
     <t>Pilar Valbuena</t>
   </si>
   <si>
-    <t>Opción 1: Impacto del cambio climático</t>
+    <t>Aula 1: Impacto del cambio climático</t>
   </si>
   <si>
     <t>Guillermo Palacios</t>
   </si>
   <si>
-    <t>Opción 2: Positron - Una IDE para ciencia de datos con R y Python</t>
+    <t>Aula 2: Positron - Una IDE para ciencia de datos con R y Python</t>
   </si>
   <si>
     <t>Adrián Cidre</t>
   </si>
   <si>
-    <t>Opción 1: Introducción a análisis geoespacial con R</t>
-  </si>
-  <si>
-    <t>Opción 2: Análisis de datos con GEE</t>
+    <t>Aula 1: Introducción a análisis geoespacial con R</t>
+  </si>
+  <si>
+    <t>Aula 2: Análisis de datos con GEE</t>
   </si>
   <si>
     <t>Antonio J. Molina</t>
@@ -198,16 +198,16 @@
     <t>Javier Pérez</t>
   </si>
   <si>
-    <t>Opción 3: Introducción a programación lineal</t>
-  </si>
-  <si>
-    <t>Opcón 1: Introducción 2 a análisis geoespacial con R</t>
-  </si>
-  <si>
-    <t>Opción 2: Análisis 2 de datos con Google Earth Engine</t>
-  </si>
-  <si>
-    <t>Opción 3: Introducción 2 a programación lineal</t>
+    <t>Aula 3: Introducción a programación lineal</t>
+  </si>
+  <si>
+    <t>Aula 1: Introducción 2 a análisis geoespacial con R</t>
+  </si>
+  <si>
+    <t>Aula 2: Análisis 2 de datos con Google Earth Engine</t>
+  </si>
+  <si>
+    <t>Aula 3: Introducción 2 a programación lineal</t>
   </si>
   <si>
     <t>Mauricio Acuña</t>
@@ -219,118 +219,118 @@
     <t>Cervezas con ciencia (espacio abierto festivo de geociencias forestales)</t>
   </si>
   <si>
-    <t>Machine Learning e IA en ciencias forestales</t>
-  </si>
-  <si>
-    <t>Opción 1: Tecnología FAO para toma de datos de campo: uso de Arena y Ground</t>
-  </si>
-  <si>
-    <t>Opción 2: Descarga de datos y teledetección con R (descarga, exploración, IVeg ...)</t>
+    <t>Aula 1: Machine Learning e IA en ciencias forestales</t>
+  </si>
+  <si>
+    <t>Aula 1: Tecnología FAO para toma de datos de campo: uso de Arena y Ground</t>
+  </si>
+  <si>
+    <t>Aula 2: Descarga de datos y teledetección con R (descarga, exploración, IVeg ...)</t>
   </si>
   <si>
     <t>Antonio Ariza?</t>
   </si>
   <si>
-    <t>Opción 1: Clasificación de usos del suelo en R (GEOBIA)</t>
-  </si>
-  <si>
-    <t>Opción 2: Clasificación de usos del suelo con GEE</t>
-  </si>
-  <si>
-    <t>Opción 3: Desarrollo de modelos alométricos para biomasa</t>
+    <t>Aula 1: Clasificación de usos del suelo en R (GEOBIA)</t>
+  </si>
+  <si>
+    <t>Aula 2: Clasificación de usos del suelo con GEE</t>
+  </si>
+  <si>
+    <t>Aula 3: Modelos de Distribución de Especies: conceptos y aplicación</t>
+  </si>
+  <si>
+    <t>Ricardo Hernández</t>
+  </si>
+  <si>
+    <t>Pablo Gonzalez</t>
+  </si>
+  <si>
+    <t>Aula 1: Teledetección y gestión de bosques australes</t>
+  </si>
+  <si>
+    <t>Antonio Cabrera</t>
+  </si>
+  <si>
+    <t>Aula 2: Paralelización en R</t>
+  </si>
+  <si>
+    <t>Opcion 1: Idoneidad del Hábitat vía SDMs y Decaimiento Forestal</t>
+  </si>
+  <si>
+    <t>Aula 2: Potencialides de SAGA GIS  para análisis hidrológicos y de erosión</t>
+  </si>
+  <si>
+    <t>Aula 1: Estadística aplicada a inventarios forestales</t>
+  </si>
+  <si>
+    <t>Aula 2: Calculo de conectividad de ecosistemas</t>
+  </si>
+  <si>
+    <t>Carlos Rivas</t>
+  </si>
+  <si>
+    <t>Guillermo</t>
+  </si>
+  <si>
+    <t>Aula 3: Intermedio - Optimización 1</t>
+  </si>
+  <si>
+    <t>Aula 1: Estadística aplicada a inventarios forestales 2</t>
+  </si>
+  <si>
+    <t>Aula 2: Desarrollo de modelos alométricos para biomasa</t>
   </si>
   <si>
     <t>Antonio Ariza</t>
   </si>
   <si>
-    <t>Opción 1: Teledetección y gestión de bosques australes</t>
-  </si>
-  <si>
-    <t>Antonio Cabrera</t>
-  </si>
-  <si>
-    <t>Opción 2: Paralelización en R</t>
-  </si>
-  <si>
-    <t>Opcion 1: Modelos de nicho y áreas protegidas</t>
-  </si>
-  <si>
-    <t>Ricardo Hernández</t>
-  </si>
-  <si>
-    <t>Opción 2: Potencialides de SAGA GIS  para análisis hidrológicos y de erosión</t>
-  </si>
-  <si>
-    <t>Opción 1: Estadística aplicada a inventarios forestales</t>
-  </si>
-  <si>
-    <t>Opción 2: Calculo de conectividad de ecosistemas</t>
-  </si>
-  <si>
-    <t>Carlos Rivas</t>
-  </si>
-  <si>
-    <t>Guillermo</t>
-  </si>
-  <si>
-    <t>Opción 3: Intermedio - Optimización 1</t>
-  </si>
-  <si>
-    <t>Opción 1: Estadística aplicada a inventarios forestales 2</t>
-  </si>
-  <si>
-    <t>Opción 2: Modelos predictivos aplicados a la priorización sistemática de la conservación</t>
-  </si>
-  <si>
-    <t>Pablo Gonzalez</t>
-  </si>
-  <si>
-    <t>Opción 3: Intermedio - Optimización 2</t>
-  </si>
-  <si>
-    <t>Estado del arte de los sensores close remote sensing</t>
+    <t>Aula 3: Intermedio - Optimización 2</t>
+  </si>
+  <si>
+    <t>Aula 1: Estado del arte de los sensores close remote sensing</t>
   </si>
   <si>
     <t>Rafa Navarro</t>
   </si>
   <si>
-    <t>Opción 1: Ecofisiología y sensorización del decaimiento forestal</t>
+    <t>Aula 1: Ecofisiología y sensorización del decaimiento forestal</t>
   </si>
   <si>
     <t> </t>
   </si>
   <si>
-    <t>Opción 2: Incendios forestales</t>
-  </si>
-  <si>
-    <t>Opción 1: Fragmentación forestal: conceptos y métricas</t>
-  </si>
-  <si>
-    <t>Opción 2: Sensorización LiDAR de procesadoras forestales</t>
-  </si>
-  <si>
-    <t>Opción 1: Toma de datos fotogramétricos + exploración de datos</t>
-  </si>
-  <si>
-    <t>Opción 2: Preprocesado de datos LiDAR + obtención de modelos digitales y métricas con lidR</t>
+    <t>Aula 2: Incendios forestales</t>
+  </si>
+  <si>
+    <t>Aula 1: Fragmentación forestal: conceptos y métricas</t>
+  </si>
+  <si>
+    <t>Aula 2: Sensorización LiDAR de procesadoras forestales</t>
+  </si>
+  <si>
+    <t>Aula 1: Toma de datos fotogramétricos + exploración de datos</t>
+  </si>
+  <si>
+    <t>Aula 2: Preprocesado de datos LiDAR + obtención de modelos digitales y métricas con lidR</t>
   </si>
   <si>
     <t>Mª Ángeles</t>
   </si>
   <si>
-    <t>Opción 3: Procesado de nubes de puntos con Python</t>
-  </si>
-  <si>
-    <t>Opción 1: LiDAR para inventario forestal con lidR</t>
-  </si>
-  <si>
-    <t>Opción 2: Procesado de datos de TLS para inventario forestal</t>
-  </si>
-  <si>
-    <t>Opción 3: Análisis de árbol individual</t>
-  </si>
-  <si>
-    <t>Cierre Summer School</t>
+    <t>Aula 3: Procesado de nubes de puntos con Python</t>
+  </si>
+  <si>
+    <t>Aula 1: LiDAR para inventario forestal con lidR</t>
+  </si>
+  <si>
+    <t>Aula 2: Procesado de datos de TLS para inventario forestal</t>
+  </si>
+  <si>
+    <t>Aula 3: Análisis de árbol individual</t>
+  </si>
+  <si>
+    <t>Aula 1: Cierre Summer School</t>
   </si>
 </sst>
 </file>
@@ -644,19 +644,19 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="20" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="20" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1010,7 +1010,7 @@
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1079,10 +1079,10 @@
       <c r="F3" s="8"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="32">
+      <c r="A4" s="34">
         <v>0.41666666666666669</v>
       </c>
-      <c r="B4" s="32">
+      <c r="B4" s="34">
         <v>0.47916666666666669</v>
       </c>
       <c r="C4" s="7" t="s">
@@ -1097,8 +1097,8 @@
       <c r="F4" s="26"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="32"/>
-      <c r="B5" s="32"/>
+      <c r="A5" s="34"/>
+      <c r="B5" s="34"/>
       <c r="C5" s="7" t="s">
         <v>13</v>
       </c>
@@ -1127,10 +1127,10 @@
       <c r="F6" s="8"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="32">
+      <c r="A7" s="34">
         <v>0.5</v>
       </c>
-      <c r="B7" s="35">
+      <c r="B7" s="36">
         <v>0.5625</v>
       </c>
       <c r="C7" s="7" t="s">
@@ -1147,8 +1147,8 @@
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="32"/>
-      <c r="B8" s="35"/>
+      <c r="A8" s="34"/>
+      <c r="B8" s="36"/>
       <c r="C8" s="7" t="s">
         <v>19</v>
       </c>
@@ -1163,8 +1163,8 @@
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="32"/>
-      <c r="B9" s="35"/>
+      <c r="A9" s="34"/>
+      <c r="B9" s="36"/>
       <c r="C9" s="7" t="s">
         <v>21</v>
       </c>
@@ -1193,10 +1193,10 @@
       <c r="F10" s="8"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="33">
+      <c r="A11" s="32">
         <v>0.60416666666666663</v>
       </c>
-      <c r="B11" s="33">
+      <c r="B11" s="32">
         <v>0.61458333333333337</v>
       </c>
       <c r="C11" s="7" t="s">
@@ -1211,8 +1211,8 @@
       <c r="F11" s="8"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="34"/>
-      <c r="B12" s="34"/>
+      <c r="A12" s="33"/>
+      <c r="B12" s="33"/>
       <c r="C12" s="7" t="s">
         <v>26</v>
       </c>
@@ -1225,10 +1225,10 @@
       <c r="F12" s="8"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="33">
+      <c r="A13" s="32">
         <v>0.61458333333333337</v>
       </c>
-      <c r="B13" s="33">
+      <c r="B13" s="32">
         <v>0.625</v>
       </c>
       <c r="C13" s="23" t="s">
@@ -1243,8 +1243,8 @@
       <c r="F13" s="8"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="34"/>
-      <c r="B14" s="34"/>
+      <c r="A14" s="33"/>
+      <c r="B14" s="33"/>
       <c r="C14" s="7" t="s">
         <v>30</v>
       </c>
@@ -1257,10 +1257,10 @@
       <c r="F14" s="8"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="32">
+      <c r="A15" s="34">
         <v>0.625</v>
       </c>
-      <c r="B15" s="32">
+      <c r="B15" s="34">
         <v>0.6875</v>
       </c>
       <c r="C15" s="7" t="s">
@@ -1275,8 +1275,8 @@
       <c r="F15" s="26"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="32"/>
-      <c r="B16" s="32"/>
+      <c r="A16" s="34"/>
+      <c r="B16" s="34"/>
       <c r="C16" s="7" t="s">
         <v>33</v>
       </c>
@@ -1291,8 +1291,8 @@
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="32"/>
-      <c r="B17" s="32"/>
+      <c r="A17" s="34"/>
+      <c r="B17" s="34"/>
       <c r="C17" s="7" t="s">
         <v>36</v>
       </c>
@@ -1323,10 +1323,10 @@
       <c r="F18" s="8"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="33">
+      <c r="A19" s="32">
         <v>0.70833333333333337</v>
       </c>
-      <c r="B19" s="33">
+      <c r="B19" s="32">
         <v>0.77083333333333337</v>
       </c>
       <c r="C19" s="7" t="s">
@@ -1343,8 +1343,8 @@
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="36"/>
-      <c r="B20" s="36"/>
+      <c r="A20" s="35"/>
+      <c r="B20" s="35"/>
       <c r="C20" s="7" t="s">
         <v>38</v>
       </c>
@@ -1359,8 +1359,8 @@
       </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="34"/>
-      <c r="B21" s="34"/>
+      <c r="A21" s="33"/>
+      <c r="B21" s="33"/>
       <c r="C21" s="7" t="s">
         <v>39</v>
       </c>
@@ -1396,18 +1396,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="B7:B9"/>
     <mergeCell ref="A13:A14"/>
     <mergeCell ref="B13:B14"/>
     <mergeCell ref="A15:A17"/>
     <mergeCell ref="B15:B17"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="B19:B21"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="B7:B9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -1419,7 +1419,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1471,10 +1471,10 @@
       <c r="F2" s="8"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="33">
+      <c r="A3" s="32">
         <v>0.375</v>
       </c>
-      <c r="B3" s="33">
+      <c r="B3" s="32">
         <v>0.45833333333333331</v>
       </c>
       <c r="C3" s="28" t="s">
@@ -1489,8 +1489,8 @@
       <c r="F3" s="26"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="34"/>
-      <c r="B4" s="34"/>
+      <c r="A4" s="33"/>
+      <c r="B4" s="33"/>
       <c r="C4" s="7" t="s">
         <v>45</v>
       </c>
@@ -1521,10 +1521,10 @@
       <c r="F5" s="8"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="35">
+      <c r="A6" s="36">
         <v>0.47916666666666669</v>
       </c>
-      <c r="B6" s="35">
+      <c r="B6" s="36">
         <v>0.5625</v>
       </c>
       <c r="C6" s="7" t="s">
@@ -1539,8 +1539,8 @@
       <c r="F6" s="26"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="35"/>
-      <c r="B7" s="35"/>
+      <c r="A7" s="36"/>
+      <c r="B7" s="36"/>
       <c r="C7" s="7" t="s">
         <v>48</v>
       </c>
@@ -1550,13 +1550,13 @@
       <c r="E7" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="F7" s="26" t="s">
+      <c r="F7" s="7" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="35"/>
-      <c r="B8" s="35"/>
+      <c r="A8" s="36"/>
+      <c r="B8" s="36"/>
       <c r="C8" s="7" t="s">
         <v>49</v>
       </c>
@@ -1566,7 +1566,9 @@
       <c r="E8" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="F8" s="26"/>
+      <c r="F8" s="28" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="6">
@@ -1585,28 +1587,28 @@
       <c r="F9" s="8"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="35">
+      <c r="A10" s="36">
         <v>0.60416666666666663</v>
       </c>
-      <c r="B10" s="35">
+      <c r="B10" s="36">
         <v>0.61458333333333337</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D10" s="7" t="s">
         <v>25</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F10" s="8"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="35"/>
-      <c r="B11" s="35"/>
+      <c r="A11" s="36"/>
+      <c r="B11" s="36"/>
       <c r="C11" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D11" s="7" t="s">
         <v>25</v>
@@ -1617,26 +1619,26 @@
       <c r="F11" s="8"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="35">
+      <c r="A12" s="36">
         <v>0.61458333333333337</v>
       </c>
-      <c r="B12" s="35">
+      <c r="B12" s="36">
         <v>0.625</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D12" s="7" t="s">
         <v>25</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="F12" s="8"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="35"/>
-      <c r="B13" s="35"/>
+      <c r="A13" s="36"/>
+      <c r="B13" s="36"/>
       <c r="C13" s="7" t="s">
         <v>56</v>
       </c>
@@ -1649,10 +1651,10 @@
       <c r="F13" s="8"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="35">
+      <c r="A14" s="36">
         <v>0.625</v>
       </c>
-      <c r="B14" s="35">
+      <c r="B14" s="36">
         <v>0.6875</v>
       </c>
       <c r="C14" s="7" t="s">
@@ -1669,8 +1671,8 @@
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="35"/>
-      <c r="B15" s="35"/>
+      <c r="A15" s="36"/>
+      <c r="B15" s="36"/>
       <c r="C15" s="7" t="s">
         <v>58</v>
       </c>
@@ -1685,8 +1687,8 @@
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="35"/>
-      <c r="B16" s="35"/>
+      <c r="A16" s="36"/>
+      <c r="B16" s="36"/>
       <c r="C16" s="7" t="s">
         <v>61</v>
       </c>
@@ -1717,10 +1719,10 @@
       <c r="F17" s="8"/>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="33">
+      <c r="A18" s="32">
         <v>0.70833333333333337</v>
       </c>
-      <c r="B18" s="33">
+      <c r="B18" s="32">
         <v>0.77083333333333337</v>
       </c>
       <c r="C18" s="7" t="s">
@@ -1737,8 +1739,8 @@
       </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="36"/>
-      <c r="B19" s="36"/>
+      <c r="A19" s="35"/>
+      <c r="B19" s="35"/>
       <c r="C19" s="7" t="s">
         <v>63</v>
       </c>
@@ -1746,15 +1748,13 @@
         <v>11</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="F19" s="28" t="s">
         <v>64</v>
       </c>
+      <c r="F19" s="26"/>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="34"/>
-      <c r="B20" s="34"/>
+      <c r="A20" s="33"/>
+      <c r="B20" s="33"/>
       <c r="C20" s="7" t="s">
         <v>65</v>
       </c>
@@ -1809,7 +1809,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1963,7 +1963,7 @@
         <v>11</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F8" s="20" t="s">
         <v>75</v>
@@ -2022,7 +2022,7 @@
         <v>75</v>
       </c>
       <c r="F11" s="20" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -2035,7 +2035,7 @@
         <v>11</v>
       </c>
       <c r="E12" s="20" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="F12" s="27" t="s">
         <v>69</v>
